--- a/Samples_clean.xlsx
+++ b/Samples_clean.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="555">
   <si>
     <t>4XEM VGA Female to Female Adapter</t>
   </si>
@@ -94,12 +94,6 @@
     <t>AMD</t>
   </si>
   <si>
-    <t>Amped Wireless Compact Wi-Fi Range Extender - RJ-45, 300Mbps, 802.11b/g/n, 2.4GHz, 600mW, Detachable High Gain 2dBi Ante</t>
-  </si>
-  <si>
-    <t>Amped</t>
-  </si>
-  <si>
     <t>APPLETON ELECTRIC TMC2X-050075NB Cable Connector, 1/2 In, Straight, Gold</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Behringer Eurolive VP1520 PA Speaker, 15, 1000 Watts</t>
   </si>
   <si>
-    <t>Behringer Eurolive</t>
-  </si>
-  <si>
     <t>Belkin Printer Cable BLKF2A046A10</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>BTI - Notebook battery ( premium ) - 1 x lithium ion 6-cell 4000 mAh - for HP 2710p</t>
   </si>
   <si>
-    <t xml:space="preserve">BTI </t>
-  </si>
-  <si>
     <t>BUFFALO BS-GS20 series BS-GS2048 - Switch - managed - 46 x 10/100/1000 + 2 x combo Gigabit SFP + 2 x SFP - desktop, rack</t>
   </si>
   <si>
@@ -292,12 +280,6 @@
     <t>Coleman Cable 49498906 Smart Surge Protector 6 Outlet</t>
   </si>
   <si>
-    <t>Coleman</t>
-  </si>
-  <si>
-    <t>Comprehensive Cable HR Pro Series Micro VGA Plug to Plug Cable with Audio, 15</t>
-  </si>
-  <si>
     <t>Comprehensive</t>
   </si>
   <si>
@@ -418,18 +400,9 @@
     <t>db Link UFMAV6 Ultra-Flex Metal A/V RCA Cables, 6</t>
   </si>
   <si>
-    <t>db Link</t>
-  </si>
-  <si>
     <t>Db Link Est12z Elite Soft Touch Rca Cable [12 Ft]</t>
   </si>
   <si>
-    <t xml:space="preserve">db Link </t>
-  </si>
-  <si>
-    <t>Off Lease REFURBISHED Dell Optiplex 780 3.0GHz C2D 4GB 400GB DVD Win 7 Pro Computer PC w 17 LCD</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -448,9 +421,6 @@
     <t>Drobo 5D - Hard drive array - 6 TB - 5 bays ( SATA-600 ) - 3 x 2 TB - USB 3.0, Thunderbolt (external)</t>
   </si>
   <si>
-    <t>Drobo 5D</t>
-  </si>
-  <si>
     <t>EDGE DiskGO C2 - USB flash drive - 64 GB - USB 2.0</t>
   </si>
   <si>
@@ -460,9 +430,6 @@
     <t>EDGE DiskGO Portable - Hard drive - 320 GB - external ( portable ) - 2.5 - USB 2.0 - 5400 rpm</t>
   </si>
   <si>
-    <t>EDGE Tech 1GB DDR2 SDRAM Memory Module - 1GB - 667MHz DDR2-667/PC2-5300 - Non-ECC - DDR2 SDRAM - 240-pin</t>
-  </si>
-  <si>
     <t>EDGE DiskGO SuperSpeed USB 3.0 Flash Drive - USB flash drive - 8 GB - USB 3.0</t>
   </si>
   <si>
@@ -544,9 +511,6 @@
     <t>14FT FLEXboot Series 24AWG Cat5e 350MHz UTP Bare Copper Ethernet Network Cable - Yellow</t>
   </si>
   <si>
-    <t>FLEXboot</t>
-  </si>
-  <si>
     <t>2FT FLEXboot Series 24AWG Cat6 550MHz UTP Bare Copper Ethernet Network Cable - Blue</t>
   </si>
   <si>
@@ -724,12 +688,6 @@
     <t>HUB CITY</t>
   </si>
   <si>
-    <t>HUBBELL WIRING DEVICE-KELLEMS HBL3018AEIV Raceway,External Corner Coupling,Ivory</t>
-  </si>
-  <si>
-    <t>HUBBELL</t>
-  </si>
-  <si>
     <t>iClooly Brownie - Leather Case for iPhone 5 - Black</t>
   </si>
   <si>
@@ -889,18 +847,12 @@
     <t>Lexmark High Yield Print Cartridge LEX64035HA</t>
   </si>
   <si>
-    <t>Lexmark</t>
-  </si>
-  <si>
     <t>Lexmark C930H2KG High-Yield Toner LEXC930H2KG</t>
   </si>
   <si>
     <t>LEXMARK INTERNATIONAL Print Cartridge, Return Program, 15000 Page Yield, Yellow</t>
   </si>
   <si>
-    <t>LEXMARK</t>
-  </si>
-  <si>
     <t>Lexmark 44 Black Print Cartridge</t>
   </si>
   <si>
@@ -910,9 +862,6 @@
     <t>Lexmark Cyan Toner Cartridge LEXC9202CH</t>
   </si>
   <si>
-    <t xml:space="preserve">Lexmark </t>
-  </si>
-  <si>
     <t>LG NP3740 Streaming Sound Bar with Wireless Subwoofer - 320 Watts, 4.1 Channels, LG Apps, Bluetooth, Built-In-Wifi, Wal</t>
   </si>
   <si>
@@ -1270,51 +1219,30 @@
     <t>Seidio BD2-HR3IPH6-GR SURFACE Protective Case Cover &amp; Holster Combo for Apple iPhone 6 (4.7) - Garnet Red</t>
   </si>
   <si>
-    <t>Seidio</t>
-  </si>
-  <si>
     <t>Seidio CSR3IPH6-GR SURFACE Protective Case Cover for Apple iPhone 6 (4.7) - Garnet Red</t>
   </si>
   <si>
-    <t xml:space="preserve">Seidio </t>
-  </si>
-  <si>
     <t>Seko Industries LQH-CP-Liquid Heat Pump</t>
   </si>
   <si>
     <t>Seko</t>
   </si>
   <si>
-    <t>Royal Consumer 39162W PB2800 Powerburst Red</t>
-  </si>
-  <si>
     <t>Sharp UX15CR Ribbon Cartridge SHRUX15CR</t>
   </si>
   <si>
     <t>Sharp</t>
   </si>
   <si>
-    <t>Signal Flex Electronics Round Speaker Cable with Springs</t>
-  </si>
-  <si>
-    <t>Signal Flex</t>
-  </si>
-  <si>
     <t>Signal Flex Electronics Roadie Speaker Cables, 12 and 14 Gauge</t>
   </si>
   <si>
     <t>Siig CE-KV0111-S1 4port Usb Hdmi Ce-kv0111-s1 Perp Kvm Switch</t>
   </si>
   <si>
-    <t>Siig</t>
-  </si>
-  <si>
     <t>SIIG USB 3.0 to Gigabit Ethernet Adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">SIIG </t>
-  </si>
-  <si>
     <t>SilverStone Mini Tower Case - Micro ATX, 1x5.25 Drive Bays, 2x 3.5 Drive Bays, 4x Expansion Slots, 1x 120mm Fan, 2x US</t>
   </si>
   <si>
@@ -1327,18 +1255,6 @@
     <t>SMC</t>
   </si>
   <si>
-    <t>Soleus Air HB15R-M3-32 Flat Panel Micathermic Radiator Heater with Remote Control</t>
-  </si>
-  <si>
-    <t>Soleus</t>
-  </si>
-  <si>
-    <t>Solid Line Products SLP24-10 Folio 10</t>
-  </si>
-  <si>
-    <t>Solid Line</t>
-  </si>
-  <si>
     <t>Sony SR32UYA/TQMN microSDHC/SDXC High Speed Memory Card</t>
   </si>
   <si>
@@ -1519,9 +1435,6 @@
     <t>Wyse Desktop Slimline Thin Client - AMD T52R 1.50 GHz - 2 GB RAM - 2 GB Flash - Windows Embedded Standard 2009 - Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Wyse </t>
-  </si>
-  <si>
     <t>Xerox 013R00599 Toner XER013R00599</t>
   </si>
   <si>
@@ -1531,9 +1444,6 @@
     <t>Xerox 106R01591 Toner XER106R01591</t>
   </si>
   <si>
-    <t>Premium Compatibles - Cyan - toner cartridge ( equivalent to: Xerox 106R01507 ) - for Xerox Phaser 6700Dn, 6700DT, 6700D</t>
-  </si>
-  <si>
     <t>Xerox WorkCentre 4265/S - Multifunction printer - B/W - laser - Legal (8.5 in x 14 in) (original) - A4/Legal (media) - u</t>
   </si>
   <si>
@@ -1600,9 +1510,6 @@
     <t>Cat5e 24AWG UTP Ethernet Network Cable, 2ft Yellow</t>
   </si>
   <si>
-    <t>HardDrive Custom Grips OE Style Foam Fits 13-14 Harley-Davidson FXSB Softail Breakout</t>
-  </si>
-  <si>
     <t>Fiber Optic Cable, LC/SC, Single Mode, Duplex - 1 meter (9/125 Type) - Yellow</t>
   </si>
   <si>
@@ -1622,9 +1529,6 @@
   </si>
   <si>
     <t>10ft RG6 (18AWG) 75Ohm, Quad Shield, CL2 Coaxial Cable with F Type Connector - White</t>
-  </si>
-  <si>
-    <t>Wireless Extenders YX027-DPC/PCS-CEL Directional Indoor Base Unit Antenna</t>
   </si>
   <si>
     <r>
@@ -1678,25 +1582,18 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Dell Optiplex</t>
+    <t>Off Lease REFURBISHED Dell Optiplex 790 3.1GHz Quad Core i5 4GB 1TB DVD Win 7 Home Desktop Computer</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Lease REFURBISHED Dell Optiplex 790 3.1GHz i5 4GB 400GB DVD Win 7 Home Mini Tower Computer PC</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Dell Optiplex</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Off Lease REFURBISHED Dell Optiplex 790 3.1GHz Quad Core i5 4GB 1TB DVD Win 7 Home Desktop Computer</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off Lease REFURBISHED Dell Optiplex 790 3.1GHz i5 4GB 400GB DVD Win 7 Home Mini Tower Computer PC</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dell Optiplex</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>MMF Industries Corrugated Cardboard Coin Transport Box, Lock, Blue, 50 Boxes-Count</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1710,6 +1607,176 @@
   <si>
     <t>VENA</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUBBELL WIRING DEVICE-KELLEMS HBL3018AEIV Raceway,External Corner Coupling,Ivory</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUBBELL WIRING</t>
+  </si>
+  <si>
+    <t>Drobo</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Flex Electronics Round Speaker Cable with Springs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Flex Electronics</t>
+  </si>
+  <si>
+    <t>EDGE Tech 1GB DDR2 SDRAM Memory Module - 1GB - 667MHz DDR2-667/PC2-5300 - Non-ECC - DDR2 SDRAM - 240-pin</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDGE Tech</t>
+  </si>
+  <si>
+    <t>Amped Wireless Compact Wi-Fi Range Extender - RJ-45, 300Mbps, 802.11b/g/n, 2.4GHz, 600mW, Detachable High Gain 2dBi Ante</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amped Wireless</t>
+  </si>
+  <si>
+    <t>Royal Consumer 39162W PB2800 Powerburst Red</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal Consumer</t>
+  </si>
+  <si>
+    <t>Soleus Air HB15R-M3-32 Flat Panel Micathermic Radiator Heater with Remote Control</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soleus Air</t>
+  </si>
+  <si>
+    <t>LENMAR</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lexmark</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEXMARK</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lexmark</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lexmark</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behringer</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coleman Cable</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comprehensive Cable HR Pro Series Micro VGA Plug to Plug Cable with Audio, 15</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Home</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTI</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seidio</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seidio</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siig</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIIG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid Line Products SLP24-10 Folio 10</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid Line Products</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premium Compatibles - Cyan - toner cartridge ( equivalent to: Xerox 106R01507 ) - for Xerox Phaser 6700Dn, 6700DT, 6700D</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>db Link</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>db Link</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Lease REFURBISHED Dell Optiplex 780 3.0GHz C2D 4GB 400GB DVD Win 7 Pro Computer PC w 17 LCD</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ddOn</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardDrive Custom Grips OE Style Foam Fits 13-14 Harley-Davidson FXSB Softail Breakout</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harley-Davidson</t>
+  </si>
+  <si>
+    <t>Wireless Extenders YX027-DPC/PCS-CEL Directional Indoor Base Unit Antenna</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Extenders</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1903,7 +1970,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1925,6 +1991,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2228,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2386,11 +2456,11 @@
       <c r="A14" s="1">
         <v>33348419</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="25" t="s">
+        <v>523</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75">
@@ -2398,10 +2468,10 @@
         <v>41941863</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75">
@@ -2409,10 +2479,10 @@
         <v>37671535</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75">
@@ -2420,10 +2490,10 @@
         <v>37818643</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75">
@@ -2431,10 +2501,10 @@
         <v>34953497</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75">
@@ -2442,10 +2512,10 @@
         <v>10038408</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75">
@@ -2453,10 +2523,10 @@
         <v>31400455</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75">
@@ -2464,10 +2534,10 @@
         <v>40712263</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75">
@@ -2475,10 +2545,10 @@
         <v>41281821</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75">
@@ -2486,10 +2556,10 @@
         <v>40623084</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75">
@@ -2497,10 +2567,10 @@
         <v>41828413</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75">
@@ -2508,10 +2578,10 @@
         <v>33947089</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75">
@@ -2519,10 +2589,10 @@
         <v>17655975</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75">
@@ -2530,10 +2600,10 @@
         <v>13077384</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75">
@@ -2541,10 +2611,10 @@
         <v>13073637</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75">
@@ -2552,10 +2622,10 @@
         <v>16677009</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75">
@@ -2563,10 +2633,10 @@
         <v>41182437</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75">
@@ -2574,10 +2644,10 @@
         <v>40137239</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75">
@@ -2585,10 +2655,10 @@
         <v>33617493</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75">
@@ -2596,10 +2666,10 @@
         <v>41607665</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75">
@@ -2607,10 +2677,10 @@
         <v>40206436</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75">
@@ -2618,10 +2688,10 @@
         <v>29567375</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75">
@@ -2629,10 +2699,10 @@
         <v>41812441</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75">
@@ -2640,10 +2710,10 @@
         <v>38669081</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75">
@@ -2651,10 +2721,10 @@
         <v>42536003</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75">
@@ -2662,10 +2732,10 @@
         <v>17490751</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75">
@@ -2673,10 +2743,10 @@
         <v>40192515</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75">
@@ -2684,10 +2754,10 @@
         <v>40986239</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75">
@@ -2695,10 +2765,10 @@
         <v>12167610</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75">
@@ -2706,10 +2776,10 @@
         <v>26858866</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75">
@@ -2717,10 +2787,10 @@
         <v>41076528</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75">
@@ -2728,10 +2798,10 @@
         <v>5750843</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75">
@@ -2739,10 +2809,10 @@
         <v>40501216</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75">
@@ -2750,10 +2820,10 @@
         <v>11060740</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75">
@@ -2761,10 +2831,10 @@
         <v>22853791</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75">
@@ -2772,10 +2842,10 @@
         <v>31769069</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75">
@@ -2783,10 +2853,10 @@
         <v>42551039</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15">
@@ -2794,10 +2864,10 @@
         <v>40870889</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75">
@@ -2805,10 +2875,10 @@
         <v>11973999</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75">
@@ -2816,21 +2886,21 @@
         <v>21152940</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75">
       <c r="A54" s="1">
         <v>21862736</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
+      <c r="B54" s="25" t="s">
+        <v>536</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75">
@@ -2838,10 +2908,10 @@
         <v>21345716</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75">
@@ -2849,10 +2919,10 @@
         <v>21862747</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75">
@@ -2860,10 +2930,10 @@
         <v>23144076</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75">
@@ -2871,10 +2941,10 @@
         <v>41269254</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75">
@@ -2882,10 +2952,10 @@
         <v>15988241</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75">
@@ -2893,10 +2963,10 @@
         <v>42455189</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75">
@@ -2904,10 +2974,10 @@
         <v>42458983</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75">
@@ -2915,10 +2985,10 @@
         <v>42458753</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75">
@@ -2926,10 +2996,10 @@
         <v>42458762</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75">
@@ -2937,10 +3007,10 @@
         <v>42458909</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75">
@@ -2948,10 +3018,10 @@
         <v>42450792</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75">
@@ -2959,10 +3029,10 @@
         <v>42458550</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75">
@@ -2970,10 +3040,10 @@
         <v>42462654</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75">
@@ -2981,10 +3051,10 @@
         <v>42454477</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75">
@@ -2992,10 +3062,10 @@
         <v>42458571</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75">
@@ -3003,10 +3073,10 @@
         <v>42464321</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75">
@@ -3014,10 +3084,10 @@
         <v>42464144</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75">
@@ -3025,10 +3095,10 @@
         <v>42458983</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75">
@@ -3036,10 +3106,10 @@
         <v>42451033</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75">
@@ -3047,10 +3117,10 @@
         <v>42462389</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75">
@@ -3058,10 +3128,10 @@
         <v>34761087</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75">
@@ -3069,10 +3139,10 @@
         <v>40900237</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75">
@@ -3080,10 +3150,10 @@
         <v>33833002</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75">
@@ -3091,10 +3161,10 @@
         <v>41508514</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75">
@@ -3102,10 +3172,10 @@
         <v>10250458</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75">
@@ -3113,10 +3183,10 @@
         <v>40984320</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75">
@@ -3124,10 +3194,10 @@
         <v>19311041</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75">
@@ -3135,10 +3205,10 @@
         <v>40861668</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75">
@@ -3146,10 +3216,10 @@
         <v>23755955</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75">
@@ -3157,21 +3227,21 @@
         <v>41174431</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75">
       <c r="A85" s="1">
         <v>41487517</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>137</v>
+      <c r="B85" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75">
@@ -3179,21 +3249,21 @@
         <v>42556022</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75">
       <c r="A87" s="1">
         <v>42523698</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>545</v>
+      <c r="B87" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75">
@@ -3201,32 +3271,32 @@
         <v>42523402</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75">
       <c r="A89" s="1">
         <v>43120512</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>541</v>
+      <c r="B89" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75">
       <c r="A90" s="1">
         <v>42557313</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>542</v>
+      <c r="B90" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75">
@@ -3234,10 +3304,10 @@
         <v>43050808</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75">
@@ -3245,10 +3315,10 @@
         <v>35195970</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.75">
@@ -3256,10 +3326,10 @@
         <v>42395886</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75">
@@ -3267,21 +3337,21 @@
         <v>15611377</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.75">
       <c r="A95" s="1">
         <v>41194742</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>147</v>
+      <c r="B95" s="25" t="s">
+        <v>521</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>145</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75">
@@ -3289,10 +3359,10 @@
         <v>42488472</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75">
@@ -3300,10 +3370,10 @@
         <v>872055</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75">
@@ -3311,10 +3381,10 @@
         <v>41447099</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75">
@@ -3322,10 +3392,10 @@
         <v>3576468</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75">
@@ -3333,10 +3403,10 @@
         <v>41183019</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.75">
@@ -3344,10 +3414,10 @@
         <v>3576474</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75">
@@ -3355,10 +3425,10 @@
         <v>40784801</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75">
@@ -3366,10 +3436,10 @@
         <v>42481309</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75">
@@ -3377,10 +3447,10 @@
         <v>41033602</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75">
@@ -3388,10 +3458,10 @@
         <v>10242709</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75">
@@ -3399,10 +3469,10 @@
         <v>40859975</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75">
@@ -3410,10 +3480,10 @@
         <v>40136830</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75">
@@ -3421,10 +3491,10 @@
         <v>11084708</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1">
@@ -3432,10 +3502,10 @@
         <v>41258977</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1">
@@ -3443,10 +3513,10 @@
         <v>34943855</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75">
@@ -3454,10 +3524,10 @@
         <v>38672154</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75">
@@ -3465,10 +3535,10 @@
         <v>41444042</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.75">
@@ -3476,10 +3546,10 @@
         <v>10714721</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75">
@@ -3487,10 +3557,10 @@
         <v>10714721</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.75">
@@ -3498,10 +3568,10 @@
         <v>38643673</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75">
@@ -3509,32 +3579,28 @@
         <v>40500411</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="12.75">
       <c r="A117" s="1">
         <v>40502018</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:3" ht="12.75">
       <c r="A118" s="1">
         <v>40742501</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75">
@@ -3542,10 +3608,10 @@
         <v>40900109</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75">
@@ -3553,10 +3619,10 @@
         <v>41486860</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75">
@@ -3564,10 +3630,10 @@
         <v>41174664</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75">
@@ -3575,10 +3641,10 @@
         <v>40900078</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75">
@@ -3586,10 +3652,10 @@
         <v>42467684</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75">
@@ -3597,10 +3663,10 @@
         <v>43096069</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75">
@@ -3608,10 +3674,10 @@
         <v>41866659</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75">
@@ -3619,10 +3685,10 @@
         <v>41744478</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75">
@@ -3630,10 +3696,10 @@
         <v>20976628</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75">
@@ -3641,10 +3707,10 @@
         <v>41195569</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75">
@@ -3652,10 +3718,10 @@
         <v>22238105</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75">
@@ -3663,10 +3729,10 @@
         <v>41961917</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75">
@@ -3674,10 +3740,10 @@
         <v>42523147</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75">
@@ -3685,10 +3751,10 @@
         <v>14550234</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.75">
@@ -3696,10 +3762,10 @@
         <v>41192699</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75">
@@ -3707,10 +3773,10 @@
         <v>11997518</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>207</v>
+        <v>194</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12.75">
@@ -3718,10 +3784,10 @@
         <v>42397741</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75">
@@ -3729,10 +3795,10 @@
         <v>41952138</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.75">
@@ -3740,10 +3806,10 @@
         <v>43039464</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75">
@@ -3751,10 +3817,10 @@
         <v>42523410</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.75">
@@ -3762,10 +3828,10 @@
         <v>40871172</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75">
@@ -3773,10 +3839,10 @@
         <v>41053765</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.75">
@@ -3784,10 +3850,10 @@
         <v>41259800</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75">
@@ -3795,10 +3861,10 @@
         <v>41177031</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.75">
@@ -3806,10 +3872,10 @@
         <v>42462518</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75">
@@ -3817,10 +3883,10 @@
         <v>41177406</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75">
@@ -3828,10 +3894,10 @@
         <v>41192577</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75">
@@ -3839,10 +3905,10 @@
         <v>41448322</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75">
@@ -3850,10 +3916,10 @@
         <v>41444957</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75">
@@ -3861,10 +3927,10 @@
         <v>37832409</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12.75">
@@ -3872,10 +3938,10 @@
         <v>33910267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75">
@@ -3883,10 +3949,10 @@
         <v>34941783</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12.75">
@@ -3894,10 +3960,10 @@
         <v>41869341</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75">
@@ -3905,10 +3971,10 @@
         <v>43140441</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.75">
@@ -3916,10 +3982,10 @@
         <v>42580605</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75">
@@ -3927,10 +3993,10 @@
         <v>42583666</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12.75">
@@ -3938,10 +4004,10 @@
         <v>5684700</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12.75">
@@ -3949,10 +4015,10 @@
         <v>39675431</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12.75">
@@ -3960,21 +4026,21 @@
         <v>43077207</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.75">
       <c r="A158" s="1">
         <v>41985127</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>235</v>
+      <c r="B158" s="25" t="s">
+        <v>516</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>236</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12.75">
@@ -3982,10 +4048,10 @@
         <v>41530484</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>238</v>
+        <v>223</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.75">
@@ -3993,10 +4059,10 @@
         <v>16523657</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12.75">
@@ -4004,10 +4070,10 @@
         <v>43096351</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.75">
@@ -4015,10 +4081,10 @@
         <v>14922517</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12.75">
@@ -4026,10 +4092,10 @@
         <v>40984217</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12.75">
@@ -4037,10 +4103,10 @@
         <v>33829709</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="12.75">
@@ -4048,10 +4114,10 @@
         <v>14860156</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.75">
@@ -4059,10 +4125,10 @@
         <v>39470687</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12.75">
@@ -4070,10 +4136,10 @@
         <v>40870887</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>252</v>
+        <v>237</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12.75">
@@ -4081,10 +4147,10 @@
         <v>13060036</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12.75">
@@ -4092,10 +4158,10 @@
         <v>16954442</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12.75">
@@ -4103,10 +4169,10 @@
         <v>13073385</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="12.75">
@@ -4114,10 +4180,10 @@
         <v>41008997</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75">
@@ -4125,10 +4191,10 @@
         <v>35822718</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12.75">
@@ -4136,10 +4202,10 @@
         <v>41285834</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>262</v>
+        <v>247</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12.75">
@@ -4147,10 +4213,10 @@
         <v>13213492</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12.75">
@@ -4158,10 +4224,10 @@
         <v>13214456</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12.75">
@@ -4169,10 +4235,10 @@
         <v>32556594</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12.75">
@@ -4180,10 +4246,10 @@
         <v>40227785</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75">
@@ -4191,10 +4257,10 @@
         <v>14506023</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12.75">
@@ -4202,10 +4268,10 @@
         <v>24016931</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12.75">
@@ -4213,10 +4279,10 @@
         <v>24727223</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="12.75">
@@ -4224,10 +4290,10 @@
         <v>37747222</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12.75">
@@ -4235,10 +4301,10 @@
         <v>40717696</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12.75">
@@ -4246,10 +4312,10 @@
         <v>41177114</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12.75">
@@ -4257,10 +4323,10 @@
         <v>42523523</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12.75">
@@ -4268,10 +4334,10 @@
         <v>40201421</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12.75">
@@ -4279,10 +4345,10 @@
         <v>41104708</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12.75">
@@ -4290,10 +4356,10 @@
         <v>38650681</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12.75">
@@ -4301,10 +4367,10 @@
         <v>35105828</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12.75">
@@ -4312,10 +4378,10 @@
         <v>40438803</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75">
@@ -4323,10 +4389,10 @@
         <v>10056403</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="12.75">
@@ -4334,10 +4400,10 @@
         <v>41234334</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="12.75">
@@ -4345,10 +4411,10 @@
         <v>13056424</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="12.75">
@@ -4356,10 +4422,10 @@
         <v>13056488</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>290</v>
+        <v>276</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="12.75">
@@ -4367,10 +4433,10 @@
         <v>33946313</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="12.75">
@@ -4378,10 +4444,10 @@
         <v>5799659</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="12.75">
@@ -4389,10 +4455,10 @@
         <v>14931473</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="12.75">
@@ -4400,10 +4466,10 @@
         <v>13056419</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="12.75">
@@ -4411,10 +4477,10 @@
         <v>39753114</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="12.75">
@@ -4422,10 +4488,10 @@
         <v>40807983</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="12.75">
@@ -4433,10 +4499,10 @@
         <v>40810731</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="12.75">
@@ -4444,10 +4510,10 @@
         <v>29567742</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="12.75">
@@ -4455,10 +4521,10 @@
         <v>10980690</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="12.75">
@@ -4466,10 +4532,10 @@
         <v>40502259</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="12.75">
@@ -4477,10 +4543,10 @@
         <v>23134578</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="12.75">
@@ -4488,10 +4554,10 @@
         <v>41031550</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>312</v>
+        <v>294</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="12.75">
@@ -4499,10 +4565,10 @@
         <v>11331575</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="12.75">
@@ -4510,10 +4576,10 @@
         <v>17129088</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="12.75">
@@ -4521,10 +4587,10 @@
         <v>11463283</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>317</v>
+        <v>299</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="12.75">
@@ -4532,10 +4598,10 @@
         <v>11463300</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="12.75">
@@ -4543,21 +4609,21 @@
         <v>11465346</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="12.75">
       <c r="A211" s="1">
         <v>21068935</v>
       </c>
-      <c r="B211" s="26" t="s">
-        <v>546</v>
+      <c r="B211" s="25" t="s">
+        <v>512</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="12.75">
@@ -4565,10 +4631,10 @@
         <v>11081106</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="12.75">
@@ -4576,10 +4642,10 @@
         <v>14972029</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="12.75">
@@ -4587,10 +4653,10 @@
         <v>21774863</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>324</v>
+        <v>306</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="12.75">
@@ -4598,10 +4664,10 @@
         <v>31393782</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="12.75">
@@ -4609,10 +4675,10 @@
         <v>41970813</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="12.75">
@@ -4620,10 +4686,10 @@
         <v>39146494</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25">
@@ -4631,10 +4697,10 @@
         <v>41030992</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>332</v>
+        <v>314</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="12.75">
@@ -4642,10 +4708,10 @@
         <v>13056556</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="12.75">
@@ -4653,10 +4719,10 @@
         <v>43094427</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>336</v>
+        <v>318</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="12.75">
@@ -4664,10 +4730,10 @@
         <v>41443961</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="12.75">
@@ -4675,10 +4741,10 @@
         <v>41490376</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="12.75">
@@ -4686,10 +4752,10 @@
         <v>4809754</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="12.75">
@@ -4697,10 +4763,10 @@
         <v>41969810</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="12.75">
@@ -4708,10 +4774,10 @@
         <v>41955884</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="12.75">
@@ -4719,10 +4785,10 @@
         <v>11331624</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>347</v>
+        <v>329</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="12.75">
@@ -4730,10 +4796,10 @@
         <v>42001590</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="12.75">
@@ -4741,10 +4807,10 @@
         <v>35095307</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="12.75">
@@ -4752,10 +4818,10 @@
         <v>35095307</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="12.75">
@@ -4763,10 +4829,10 @@
         <v>35584236</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="12.75">
@@ -4774,10 +4840,10 @@
         <v>32822800</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="12.75">
@@ -4785,10 +4851,10 @@
         <v>33684630</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="12.75">
@@ -4796,10 +4862,10 @@
         <v>41161826</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="12.75">
@@ -4807,10 +4873,10 @@
         <v>38151724</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="12.75">
@@ -4818,10 +4884,10 @@
         <v>42553983</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="12.75">
@@ -4829,10 +4895,10 @@
         <v>41147395</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="12.75">
@@ -4840,10 +4906,10 @@
         <v>41732253</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="12.75">
@@ -4851,10 +4917,10 @@
         <v>14922463</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>366</v>
+        <v>348</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="12.75">
@@ -4862,10 +4928,10 @@
         <v>17327841</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="12.75">
@@ -4873,10 +4939,10 @@
         <v>40985592</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="12.75">
@@ -4884,10 +4950,10 @@
         <v>9893715</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="12.75">
@@ -4895,10 +4961,10 @@
         <v>34922623</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="12.75">
@@ -4906,10 +4972,10 @@
         <v>43019603</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="12.75">
@@ -4917,10 +4983,10 @@
         <v>40899628</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="12.75">
@@ -4928,10 +4994,10 @@
         <v>42472884</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>379</v>
+        <v>361</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="12.75">
@@ -4939,10 +5005,10 @@
         <v>11291972</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="12.75">
@@ -4950,10 +5016,10 @@
         <v>43113696</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="12.75">
@@ -4961,10 +5027,10 @@
         <v>19756188</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="12.75">
@@ -4972,10 +5038,10 @@
         <v>29565529</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>386</v>
+        <v>368</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="12.75">
@@ -4983,10 +5049,10 @@
         <v>20835883</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>388</v>
+        <v>370</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="12.75">
@@ -4994,10 +5060,10 @@
         <v>34514138</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>390</v>
+        <v>372</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="12.75">
@@ -5005,10 +5071,10 @@
         <v>41732120</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="12.75">
@@ -5016,10 +5082,10 @@
         <v>870823</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="12.75">
@@ -5027,10 +5093,10 @@
         <v>16422804</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="12.75">
@@ -5038,10 +5104,10 @@
         <v>28094202</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="12.75">
@@ -5049,10 +5115,10 @@
         <v>23140281</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="12.75">
@@ -5060,10 +5126,10 @@
         <v>42395885</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="12.75">
@@ -5071,10 +5137,10 @@
         <v>42396301</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="12.75">
@@ -5082,10 +5148,10 @@
         <v>42397293</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="12.75">
@@ -5093,10 +5159,10 @@
         <v>38138775</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="12.75">
@@ -5104,10 +5170,10 @@
         <v>40900252</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="12.75">
@@ -5115,10 +5181,10 @@
         <v>15172552</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="12.75">
@@ -5126,10 +5192,10 @@
         <v>41950008</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>548</v>
+        <v>392</v>
+      </c>
+      <c r="C263" s="25" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="12.75">
@@ -5137,10 +5203,10 @@
         <v>13216293</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="12.75">
@@ -5148,10 +5214,10 @@
         <v>10756168</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="12.75">
@@ -5159,10 +5225,10 @@
         <v>880487</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="12.75">
@@ -5170,10 +5236,10 @@
         <v>11979925</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="12.75">
@@ -5181,10 +5247,10 @@
         <v>41981265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
+      </c>
+      <c r="C268" s="25" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="12.75">
@@ -5192,10 +5258,10 @@
         <v>41981097</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>419</v>
+        <v>400</v>
+      </c>
+      <c r="C269" s="25" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="12.75">
@@ -5203,21 +5269,21 @@
         <v>24252979</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="12.75">
       <c r="A271" s="1">
         <v>33943557</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>422</v>
+      <c r="B271" s="25" t="s">
+        <v>525</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>421</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="12.75">
@@ -5225,21 +5291,21 @@
         <v>14916493</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="12.75">
       <c r="A273" s="1">
         <v>11948151</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>426</v>
+      <c r="B273" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="12.75">
@@ -5247,10 +5313,10 @@
         <v>11948123</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="12.75">
@@ -5258,10 +5324,10 @@
         <v>41077609</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>429</v>
+        <v>406</v>
+      </c>
+      <c r="C275" s="24" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="12.75">
@@ -5269,10 +5335,10 @@
         <v>21978138</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>431</v>
+        <v>407</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="12.75">
@@ -5280,10 +5346,10 @@
         <v>35182645</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="12.75">
@@ -5291,32 +5357,32 @@
         <v>42023674</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="12.75">
       <c r="A279" s="1">
         <v>43096915</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>436</v>
+      <c r="B279" s="25" t="s">
+        <v>527</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>437</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="12.75">
       <c r="A280" s="1">
         <v>30405197</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>439</v>
+      <c r="B280" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="12.75">
@@ -5324,10 +5390,10 @@
         <v>41491199</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="12.75">
@@ -5335,10 +5401,10 @@
         <v>42397285</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="12.75">
@@ -5346,10 +5412,10 @@
         <v>43041464</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>444</v>
+        <v>415</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="12.75">
@@ -5357,10 +5423,10 @@
         <v>42990553</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>444</v>
+        <v>417</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="12.75">
@@ -5368,10 +5434,10 @@
         <v>32814646</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="12.75">
@@ -5379,10 +5445,10 @@
         <v>41114021</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="12.75">
@@ -5390,10 +5456,10 @@
         <v>41091177</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C287" s="25" t="s">
-        <v>536</v>
+        <v>422</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="12.75">
@@ -5401,10 +5467,10 @@
         <v>40897653</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C288" s="19" t="s">
-        <v>537</v>
+        <v>423</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="12.75">
@@ -5412,10 +5478,10 @@
         <v>41193886</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>537</v>
+        <v>424</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="12.75">
@@ -5423,10 +5489,10 @@
         <v>40871357</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C290" s="26" t="s">
-        <v>538</v>
+        <v>425</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="12.75">
@@ -5434,10 +5500,10 @@
         <v>15738981</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C291" s="26" t="s">
-        <v>539</v>
+        <v>426</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="12.75">
@@ -5445,10 +5511,10 @@
         <v>13078085</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C292" s="26" t="s">
-        <v>539</v>
+        <v>427</v>
+      </c>
+      <c r="C292" s="25" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="12.75">
@@ -5456,10 +5522,10 @@
         <v>33791218</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="12.75">
@@ -5467,10 +5533,10 @@
         <v>11988063</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="12.75">
@@ -5478,10 +5544,10 @@
         <v>31956572</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="12.75">
@@ -5489,10 +5555,10 @@
         <v>40145575</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="12.75">
@@ -5500,10 +5566,10 @@
         <v>40985056</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="12.75">
@@ -5511,10 +5577,10 @@
         <v>42552559</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="12.75">
@@ -5522,10 +5588,10 @@
         <v>10929481</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="12.75">
@@ -5533,10 +5599,10 @@
         <v>42011667</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C300" s="20" t="s">
-        <v>471</v>
+        <v>442</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="12.75">
@@ -5544,10 +5610,10 @@
         <v>41193329</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="12.75">
@@ -5555,10 +5621,10 @@
         <v>4694705</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="12.75">
@@ -5566,10 +5632,10 @@
         <v>41868930</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="12.75">
@@ -5577,10 +5643,10 @@
         <v>41195038</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="12.75">
@@ -5588,10 +5654,10 @@
         <v>42011667</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="12.75">
@@ -5599,10 +5665,10 @@
         <v>41192973</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="12.75">
@@ -5610,10 +5676,10 @@
         <v>29563889</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="12.75">
@@ -5621,10 +5687,10 @@
         <v>35183812</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="12.75">
@@ -5632,10 +5698,10 @@
         <v>40818608</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="12.75">
@@ -5643,10 +5709,10 @@
         <v>37229793</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C310" s="21" t="s">
-        <v>485</v>
+        <v>456</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="12.75">
@@ -5654,10 +5720,10 @@
         <v>41174643</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C311" s="26" t="s">
-        <v>549</v>
+        <v>458</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="12.75">
@@ -5665,10 +5731,10 @@
         <v>41493787</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="12.75">
@@ -5676,10 +5742,10 @@
         <v>40984269</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="12.75">
@@ -5687,10 +5753,10 @@
         <v>41490695</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="12.75">
@@ -5698,10 +5764,10 @@
         <v>41509057</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="12.75">
@@ -5709,10 +5775,10 @@
         <v>20700886</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="12.75">
@@ -5720,10 +5786,10 @@
         <v>42462460</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="12.75">
@@ -5731,10 +5797,10 @@
         <v>41193166</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>500</v>
+        <v>471</v>
+      </c>
+      <c r="C318" s="25" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="12.75">
@@ -5742,10 +5808,10 @@
         <v>13056866</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="12.75">
@@ -5753,21 +5819,21 @@
         <v>23133903</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75">
       <c r="A321" s="1">
         <v>36750803</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>504</v>
+      <c r="B321" s="25" t="s">
+        <v>546</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>502</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75">
@@ -5775,10 +5841,10 @@
         <v>42396336</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75">
@@ -5786,10 +5852,10 @@
         <v>23133903</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75">
@@ -5797,10 +5863,10 @@
         <v>42394349</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75">
@@ -5808,10 +5874,10 @@
         <v>43097590</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75">
@@ -5819,10 +5885,10 @@
         <v>39149199</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75">
@@ -5830,10 +5896,10 @@
         <v>40706636</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75">
@@ -5841,7 +5907,7 @@
         <v>40499823</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="C328" s="2"/>
     </row>
@@ -5850,7 +5916,7 @@
         <v>40501550</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75">
@@ -5858,7 +5924,7 @@
         <v>1142162</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75">
@@ -5866,7 +5932,7 @@
         <v>40501637</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75">
@@ -5874,17 +5940,17 @@
         <v>31335921</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75">
       <c r="A333" s="1">
         <v>40501947</v>
       </c>
-      <c r="B333" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="C333" s="11"/>
+      <c r="B333" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C333" s="10"/>
       <c r="D333" s="3"/>
     </row>
     <row r="334" spans="1:4" ht="12.75">
@@ -5892,7 +5958,7 @@
         <v>226293</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="12.75">
@@ -5900,7 +5966,7 @@
         <v>40499855</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="12.75">
@@ -5908,7 +5974,7 @@
         <v>40500167</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="12.75">
@@ -5916,7 +5982,7 @@
         <v>40502216</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="12.75">
@@ -5924,7 +5990,7 @@
         <v>40501744</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="12.75">
@@ -5932,7 +5998,7 @@
         <v>40502270</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="12.75">
@@ -5940,7 +6006,7 @@
         <v>40501135</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="12.75">
@@ -5948,15 +6014,18 @@
         <v>40501540</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="12.75">
       <c r="A342" s="1">
         <v>36082590</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>527</v>
+      <c r="B342" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C342" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="12.75">
@@ -5964,7 +6033,7 @@
         <v>40502567</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="12.75">
@@ -5972,7 +6041,7 @@
         <v>11089830</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="12.75">
@@ -5980,7 +6049,7 @@
         <v>40501952</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="12.75">
@@ -5988,7 +6057,7 @@
         <v>743406</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="12.75">
@@ -5996,34 +6065,37 @@
         <v>40500488</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C347" s="23"/>
+        <v>501</v>
+      </c>
+      <c r="C347" s="22"/>
     </row>
     <row r="348" spans="1:3" ht="12.75">
       <c r="A348" s="1">
         <v>40501658</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C348" s="24"/>
+        <v>502</v>
+      </c>
+      <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" ht="12.75">
       <c r="A349" s="1">
         <v>42512235</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C349" s="24"/>
+        <v>503</v>
+      </c>
+      <c r="C349" s="23"/>
     </row>
     <row r="350" spans="1:3" ht="12.75">
       <c r="A350" s="1">
         <v>21631878</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>535</v>
+      <c r="B350" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C350" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Samples_clean.xlsx
+++ b/Samples_clean.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="555">
   <si>
     <t>4XEM VGA Female to Female Adapter</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>First Team</t>
-  </si>
-  <si>
-    <t>14FT FLEXboot Series 24AWG Cat5e 350MHz UTP Bare Copper Ethernet Network Cable - Yellow</t>
   </si>
   <si>
     <t>2FT FLEXboot Series 24AWG Cat6 550MHz UTP Bare Copper Ethernet Network Cable - Blue</t>
@@ -1777,6 +1774,10 @@
   </si>
   <si>
     <t>Wireless Extenders</t>
+  </si>
+  <si>
+    <t>14FT FLEXboot Series 24AWG Cat5e 350MHz UTP Bare Copper Ethernet Network Cable - Yellow</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2298,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C350" sqref="C350"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2457,10 +2458,10 @@
         <v>33348419</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75">
@@ -2592,7 +2593,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75">
@@ -2658,7 +2659,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75">
@@ -2889,7 +2890,7 @@
         <v>86</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75">
@@ -2897,7 +2898,7 @@
         <v>21862736</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>87</v>
@@ -3219,7 +3220,7 @@
         <v>126</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75">
@@ -3230,7 +3231,7 @@
         <v>127</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75">
@@ -3238,10 +3239,10 @@
         <v>41487517</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75">
@@ -3252,7 +3253,7 @@
         <v>129</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75">
@@ -3260,10 +3261,10 @@
         <v>42523698</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>510</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75">
@@ -3282,10 +3283,10 @@
         <v>43120512</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75">
@@ -3293,10 +3294,10 @@
         <v>42557313</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75">
@@ -3318,7 +3319,7 @@
         <v>133</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.75">
@@ -3348,10 +3349,10 @@
         <v>41194742</v>
       </c>
       <c r="B95" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75">
@@ -3578,17 +3579,19 @@
       <c r="A116" s="1">
         <v>40500411</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C116" s="11"/>
+      <c r="B116" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="12.75">
       <c r="A117" s="1">
         <v>40502018</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3597,10 +3600,10 @@
         <v>40742501</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75">
@@ -3608,10 +3611,10 @@
         <v>40900109</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75">
@@ -3619,10 +3622,10 @@
         <v>41486860</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75">
@@ -3630,10 +3633,10 @@
         <v>41174664</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75">
@@ -3641,10 +3644,10 @@
         <v>40900078</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75">
@@ -3652,10 +3655,10 @@
         <v>42467684</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75">
@@ -3663,10 +3666,10 @@
         <v>43096069</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75">
@@ -3674,10 +3677,10 @@
         <v>41866659</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75">
@@ -3685,10 +3688,10 @@
         <v>41744478</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75">
@@ -3696,10 +3699,10 @@
         <v>20976628</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75">
@@ -3707,10 +3710,10 @@
         <v>41195569</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75">
@@ -3718,10 +3721,10 @@
         <v>22238105</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75">
@@ -3729,10 +3732,10 @@
         <v>41961917</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75">
@@ -3740,10 +3743,10 @@
         <v>42523147</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75">
@@ -3751,10 +3754,10 @@
         <v>14550234</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.75">
@@ -3762,10 +3765,10 @@
         <v>41192699</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75">
@@ -3773,10 +3776,10 @@
         <v>11997518</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12.75">
@@ -3784,10 +3787,10 @@
         <v>42397741</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75">
@@ -3795,10 +3798,10 @@
         <v>41952138</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.75">
@@ -3806,10 +3809,10 @@
         <v>43039464</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75">
@@ -3817,10 +3820,10 @@
         <v>42523410</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.75">
@@ -3828,10 +3831,10 @@
         <v>40871172</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75">
@@ -3839,10 +3842,10 @@
         <v>41053765</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.75">
@@ -3850,10 +3853,10 @@
         <v>41259800</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75">
@@ -3861,10 +3864,10 @@
         <v>41177031</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.75">
@@ -3872,10 +3875,10 @@
         <v>42462518</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75">
@@ -3883,10 +3886,10 @@
         <v>41177406</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75">
@@ -3894,10 +3897,10 @@
         <v>41192577</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75">
@@ -3905,10 +3908,10 @@
         <v>41448322</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75">
@@ -3916,10 +3919,10 @@
         <v>41444957</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75">
@@ -3927,10 +3930,10 @@
         <v>37832409</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12.75">
@@ -3938,10 +3941,10 @@
         <v>33910267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75">
@@ -3949,10 +3952,10 @@
         <v>34941783</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12.75">
@@ -3960,10 +3963,10 @@
         <v>41869341</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75">
@@ -3971,10 +3974,10 @@
         <v>43140441</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.75">
@@ -3982,10 +3985,10 @@
         <v>42580605</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75">
@@ -3993,10 +3996,10 @@
         <v>42583666</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12.75">
@@ -4004,10 +4007,10 @@
         <v>5684700</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12.75">
@@ -4015,10 +4018,10 @@
         <v>39675431</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12.75">
@@ -4026,10 +4029,10 @@
         <v>43077207</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.75">
@@ -4037,10 +4040,10 @@
         <v>41985127</v>
       </c>
       <c r="B158" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12.75">
@@ -4048,10 +4051,10 @@
         <v>41530484</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.75">
@@ -4059,10 +4062,10 @@
         <v>16523657</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12.75">
@@ -4070,10 +4073,10 @@
         <v>43096351</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.75">
@@ -4081,10 +4084,10 @@
         <v>14922517</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12.75">
@@ -4092,10 +4095,10 @@
         <v>40984217</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12.75">
@@ -4103,10 +4106,10 @@
         <v>33829709</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="12.75">
@@ -4114,10 +4117,10 @@
         <v>14860156</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.75">
@@ -4125,10 +4128,10 @@
         <v>39470687</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12.75">
@@ -4136,10 +4139,10 @@
         <v>40870887</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12.75">
@@ -4147,10 +4150,10 @@
         <v>13060036</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12.75">
@@ -4158,10 +4161,10 @@
         <v>16954442</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12.75">
@@ -4169,10 +4172,10 @@
         <v>13073385</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="12.75">
@@ -4180,10 +4183,10 @@
         <v>41008997</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75">
@@ -4191,10 +4194,10 @@
         <v>35822718</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12.75">
@@ -4202,10 +4205,10 @@
         <v>41285834</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12.75">
@@ -4213,10 +4216,10 @@
         <v>13213492</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12.75">
@@ -4224,10 +4227,10 @@
         <v>13214456</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12.75">
@@ -4235,10 +4238,10 @@
         <v>32556594</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12.75">
@@ -4246,10 +4249,10 @@
         <v>40227785</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75">
@@ -4257,10 +4260,10 @@
         <v>14506023</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12.75">
@@ -4268,10 +4271,10 @@
         <v>24016931</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12.75">
@@ -4279,10 +4282,10 @@
         <v>24727223</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="12.75">
@@ -4290,10 +4293,10 @@
         <v>37747222</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12.75">
@@ -4301,10 +4304,10 @@
         <v>40717696</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12.75">
@@ -4312,10 +4315,10 @@
         <v>41177114</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12.75">
@@ -4323,10 +4326,10 @@
         <v>42523523</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12.75">
@@ -4334,10 +4337,10 @@
         <v>40201421</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12.75">
@@ -4345,10 +4348,10 @@
         <v>41104708</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12.75">
@@ -4356,10 +4359,10 @@
         <v>38650681</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12.75">
@@ -4367,10 +4370,10 @@
         <v>35105828</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12.75">
@@ -4378,10 +4381,10 @@
         <v>40438803</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75">
@@ -4389,10 +4392,10 @@
         <v>10056403</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="12.75">
@@ -4400,10 +4403,10 @@
         <v>41234334</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="12.75">
@@ -4411,10 +4414,10 @@
         <v>13056424</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="12.75">
@@ -4422,10 +4425,10 @@
         <v>13056488</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="12.75">
@@ -4433,10 +4436,10 @@
         <v>33946313</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="12.75">
@@ -4444,10 +4447,10 @@
         <v>5799659</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="12.75">
@@ -4455,10 +4458,10 @@
         <v>14931473</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="12.75">
@@ -4466,10 +4469,10 @@
         <v>13056419</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="12.75">
@@ -4477,10 +4480,10 @@
         <v>39753114</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="12.75">
@@ -4488,10 +4491,10 @@
         <v>40807983</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="12.75">
@@ -4499,10 +4502,10 @@
         <v>40810731</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="12.75">
@@ -4510,10 +4513,10 @@
         <v>29567742</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="12.75">
@@ -4521,10 +4524,10 @@
         <v>10980690</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="12.75">
@@ -4532,10 +4535,10 @@
         <v>40502259</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="12.75">
@@ -4543,10 +4546,10 @@
         <v>23134578</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="12.75">
@@ -4554,10 +4557,10 @@
         <v>41031550</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="12.75">
@@ -4565,10 +4568,10 @@
         <v>11331575</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="12.75">
@@ -4576,10 +4579,10 @@
         <v>17129088</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="12.75">
@@ -4587,10 +4590,10 @@
         <v>11463283</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="12.75">
@@ -4598,10 +4601,10 @@
         <v>11463300</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="12.75">
@@ -4609,10 +4612,10 @@
         <v>11465346</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="12.75">
@@ -4620,10 +4623,10 @@
         <v>21068935</v>
       </c>
       <c r="B211" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="12.75">
@@ -4631,10 +4634,10 @@
         <v>11081106</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="12.75">
@@ -4642,10 +4645,10 @@
         <v>14972029</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="12.75">
@@ -4653,10 +4656,10 @@
         <v>21774863</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C214" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="12.75">
@@ -4664,10 +4667,10 @@
         <v>31393782</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="12.75">
@@ -4675,10 +4678,10 @@
         <v>41970813</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="12.75">
@@ -4686,10 +4689,10 @@
         <v>39146494</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25">
@@ -4697,10 +4700,10 @@
         <v>41030992</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C218" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="12.75">
@@ -4708,10 +4711,10 @@
         <v>13056556</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="12.75">
@@ -4719,10 +4722,10 @@
         <v>43094427</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="12.75">
@@ -4730,10 +4733,10 @@
         <v>41443961</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="12.75">
@@ -4741,10 +4744,10 @@
         <v>41490376</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="12.75">
@@ -4752,10 +4755,10 @@
         <v>4809754</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="12.75">
@@ -4763,10 +4766,10 @@
         <v>41969810</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="12.75">
@@ -4774,10 +4777,10 @@
         <v>41955884</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="12.75">
@@ -4785,10 +4788,10 @@
         <v>11331624</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C226" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="12.75">
@@ -4796,10 +4799,10 @@
         <v>42001590</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="12.75">
@@ -4807,10 +4810,10 @@
         <v>35095307</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="12.75">
@@ -4818,10 +4821,10 @@
         <v>35095307</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="12.75">
@@ -4829,10 +4832,10 @@
         <v>35584236</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="12.75">
@@ -4840,10 +4843,10 @@
         <v>32822800</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="12.75">
@@ -4851,10 +4854,10 @@
         <v>33684630</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="12.75">
@@ -4862,10 +4865,10 @@
         <v>41161826</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="12.75">
@@ -4873,10 +4876,10 @@
         <v>38151724</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="12.75">
@@ -4884,10 +4887,10 @@
         <v>42553983</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="12.75">
@@ -4895,10 +4898,10 @@
         <v>41147395</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="12.75">
@@ -4906,10 +4909,10 @@
         <v>41732253</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="12.75">
@@ -4917,10 +4920,10 @@
         <v>14922463</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C238" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="12.75">
@@ -4928,10 +4931,10 @@
         <v>17327841</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="12.75">
@@ -4939,10 +4942,10 @@
         <v>40985592</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="12.75">
@@ -4950,10 +4953,10 @@
         <v>9893715</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="12.75">
@@ -4961,10 +4964,10 @@
         <v>34922623</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="12.75">
@@ -4972,10 +4975,10 @@
         <v>43019603</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="12.75">
@@ -4983,10 +4986,10 @@
         <v>40899628</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="12.75">
@@ -4994,10 +4997,10 @@
         <v>42472884</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C245" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="12.75">
@@ -5005,10 +5008,10 @@
         <v>11291972</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="12.75">
@@ -5016,10 +5019,10 @@
         <v>43113696</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="12.75">
@@ -5027,10 +5030,10 @@
         <v>19756188</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="12.75">
@@ -5038,10 +5041,10 @@
         <v>29565529</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="12.75">
@@ -5049,10 +5052,10 @@
         <v>20835883</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C250" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="12.75">
@@ -5060,10 +5063,10 @@
         <v>34514138</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C251" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="12.75">
@@ -5071,10 +5074,10 @@
         <v>41732120</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="12.75">
@@ -5082,10 +5085,10 @@
         <v>870823</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="12.75">
@@ -5093,10 +5096,10 @@
         <v>16422804</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="12.75">
@@ -5104,10 +5107,10 @@
         <v>28094202</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="12.75">
@@ -5115,10 +5118,10 @@
         <v>23140281</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="12.75">
@@ -5126,10 +5129,10 @@
         <v>42395885</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="12.75">
@@ -5137,10 +5140,10 @@
         <v>42396301</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="12.75">
@@ -5148,10 +5151,10 @@
         <v>42397293</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="12.75">
@@ -5159,10 +5162,10 @@
         <v>38138775</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="12.75">
@@ -5170,10 +5173,10 @@
         <v>40900252</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="12.75">
@@ -5181,10 +5184,10 @@
         <v>15172552</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="12.75">
@@ -5192,10 +5195,10 @@
         <v>41950008</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="12.75">
@@ -5203,10 +5206,10 @@
         <v>13216293</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="12.75">
@@ -5214,10 +5217,10 @@
         <v>10756168</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="12.75">
@@ -5225,10 +5228,10 @@
         <v>880487</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="12.75">
@@ -5236,10 +5239,10 @@
         <v>11979925</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="12.75">
@@ -5247,10 +5250,10 @@
         <v>41981265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="12.75">
@@ -5258,10 +5261,10 @@
         <v>41981097</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="12.75">
@@ -5269,10 +5272,10 @@
         <v>24252979</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="12.75">
@@ -5280,10 +5283,10 @@
         <v>33943557</v>
       </c>
       <c r="B271" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="12.75">
@@ -5291,10 +5294,10 @@
         <v>14916493</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="12.75">
@@ -5302,10 +5305,10 @@
         <v>11948151</v>
       </c>
       <c r="B273" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C273" s="24" t="s">
         <v>519</v>
-      </c>
-      <c r="C273" s="24" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="12.75">
@@ -5313,10 +5316,10 @@
         <v>11948123</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="12.75">
@@ -5324,10 +5327,10 @@
         <v>41077609</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="12.75">
@@ -5335,10 +5338,10 @@
         <v>21978138</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="12.75">
@@ -5346,10 +5349,10 @@
         <v>35182645</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="12.75">
@@ -5357,10 +5360,10 @@
         <v>42023674</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="12.75">
@@ -5368,10 +5371,10 @@
         <v>43096915</v>
       </c>
       <c r="B279" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="12.75">
@@ -5379,10 +5382,10 @@
         <v>30405197</v>
       </c>
       <c r="B280" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C280" s="25" t="s">
         <v>543</v>
-      </c>
-      <c r="C280" s="25" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="12.75">
@@ -5390,10 +5393,10 @@
         <v>41491199</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="12.75">
@@ -5401,10 +5404,10 @@
         <v>42397285</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="12.75">
@@ -5412,10 +5415,10 @@
         <v>43041464</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="12.75">
@@ -5423,10 +5426,10 @@
         <v>42990553</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="12.75">
@@ -5434,10 +5437,10 @@
         <v>32814646</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="12.75">
@@ -5445,10 +5448,10 @@
         <v>41114021</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="12.75">
@@ -5456,10 +5459,10 @@
         <v>41091177</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="12.75">
@@ -5467,10 +5470,10 @@
         <v>40897653</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="12.75">
@@ -5478,10 +5481,10 @@
         <v>41193886</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="12.75">
@@ -5489,10 +5492,10 @@
         <v>40871357</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="12.75">
@@ -5500,10 +5503,10 @@
         <v>15738981</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="12.75">
@@ -5511,10 +5514,10 @@
         <v>13078085</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="12.75">
@@ -5522,10 +5525,10 @@
         <v>33791218</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="12.75">
@@ -5533,10 +5536,10 @@
         <v>11988063</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="12.75">
@@ -5544,10 +5547,10 @@
         <v>31956572</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="12.75">
@@ -5555,10 +5558,10 @@
         <v>40145575</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="12.75">
@@ -5566,10 +5569,10 @@
         <v>40985056</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="12.75">
@@ -5577,10 +5580,10 @@
         <v>42552559</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="12.75">
@@ -5588,10 +5591,10 @@
         <v>10929481</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C299" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="12.75">
@@ -5599,10 +5602,10 @@
         <v>42011667</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C300" s="19" t="s">
         <v>442</v>
-      </c>
-      <c r="C300" s="19" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="12.75">
@@ -5610,10 +5613,10 @@
         <v>41193329</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="12.75">
@@ -5621,10 +5624,10 @@
         <v>4694705</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="12.75">
@@ -5632,10 +5635,10 @@
         <v>41868930</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="12.75">
@@ -5643,10 +5646,10 @@
         <v>41195038</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="12.75">
@@ -5654,10 +5657,10 @@
         <v>42011667</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="12.75">
@@ -5665,10 +5668,10 @@
         <v>41192973</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="12.75">
@@ -5676,10 +5679,10 @@
         <v>29563889</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="12.75">
@@ -5687,10 +5690,10 @@
         <v>35183812</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="12.75">
@@ -5698,10 +5701,10 @@
         <v>40818608</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="12.75">
@@ -5709,10 +5712,10 @@
         <v>37229793</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C310" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="12.75">
@@ -5720,10 +5723,10 @@
         <v>41174643</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="12.75">
@@ -5731,10 +5734,10 @@
         <v>41493787</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C312" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="12.75">
@@ -5742,10 +5745,10 @@
         <v>40984269</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="12.75">
@@ -5753,10 +5756,10 @@
         <v>41490695</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="12.75">
@@ -5764,10 +5767,10 @@
         <v>41509057</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="12.75">
@@ -5775,10 +5778,10 @@
         <v>20700886</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="12.75">
@@ -5786,10 +5789,10 @@
         <v>42462460</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="12.75">
@@ -5797,10 +5800,10 @@
         <v>41193166</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C318" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="12.75">
@@ -5808,10 +5811,10 @@
         <v>13056866</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="12.75">
@@ -5819,10 +5822,10 @@
         <v>23133903</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75">
@@ -5830,10 +5833,10 @@
         <v>36750803</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75">
@@ -5841,10 +5844,10 @@
         <v>42396336</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75">
@@ -5852,10 +5855,10 @@
         <v>23133903</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75">
@@ -5863,10 +5866,10 @@
         <v>42394349</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75">
@@ -5874,10 +5877,10 @@
         <v>43097590</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75">
@@ -5885,10 +5888,10 @@
         <v>39149199</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75">
@@ -5896,10 +5899,10 @@
         <v>40706636</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C327" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75">
@@ -5907,7 +5910,7 @@
         <v>40499823</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C328" s="2"/>
     </row>
@@ -5916,7 +5919,7 @@
         <v>40501550</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75">
@@ -5924,7 +5927,7 @@
         <v>1142162</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75">
@@ -5932,7 +5935,7 @@
         <v>40501637</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75">
@@ -5940,7 +5943,7 @@
         <v>31335921</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75">
@@ -5948,7 +5951,7 @@
         <v>40501947</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="3"/>
@@ -5958,7 +5961,7 @@
         <v>226293</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="12.75">
@@ -5966,7 +5969,7 @@
         <v>40499855</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="12.75">
@@ -5974,7 +5977,7 @@
         <v>40500167</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="12.75">
@@ -5982,7 +5985,7 @@
         <v>40502216</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="12.75">
@@ -5990,7 +5993,7 @@
         <v>40501744</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="12.75">
@@ -5998,7 +6001,7 @@
         <v>40502270</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="12.75">
@@ -6006,7 +6009,7 @@
         <v>40501135</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="12.75">
@@ -6014,7 +6017,7 @@
         <v>40501540</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="12.75">
@@ -6022,10 +6025,10 @@
         <v>36082590</v>
       </c>
       <c r="B342" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="C342" t="s">
         <v>551</v>
-      </c>
-      <c r="C342" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="12.75">
@@ -6033,7 +6036,7 @@
         <v>40502567</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="12.75">
@@ -6041,7 +6044,7 @@
         <v>11089830</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="12.75">
@@ -6049,7 +6052,7 @@
         <v>40501952</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="12.75">
@@ -6057,7 +6060,7 @@
         <v>743406</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="12.75">
@@ -6065,7 +6068,7 @@
         <v>40500488</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C347" s="22"/>
     </row>
@@ -6074,7 +6077,7 @@
         <v>40501658</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C348" s="23"/>
     </row>
@@ -6083,7 +6086,7 @@
         <v>42512235</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C349" s="23"/>
     </row>
@@ -6092,10 +6095,10 @@
         <v>21631878</v>
       </c>
       <c r="B350" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="C350" t="s">
         <v>553</v>
-      </c>
-      <c r="C350" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Samples_clean.xlsx
+++ b/Samples_clean.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7200"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$C$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$C$1:$C$350</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="569">
   <si>
     <t>4XEM VGA Female to Female Adapter</t>
   </si>
@@ -1777,6 +1778,75 @@
   </si>
   <si>
     <t>14FT FLEXboot Series 24AWG Cat5e 350MHz UTP Bare Copper Ethernet Network Cable - Yellow</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sony PlayStation 3 80GB Console</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ony</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>26138763</t>
+  </si>
+  <si>
+    <t>EVGA GeForce GTX 770 with ACX Cooler 2GB GDDR5 PCI Express 3.0 Graphic Card</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VGA</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>34743021</t>
+  </si>
+  <si>
+    <t>Aluratek 4-Port USB 3.0 SuperSpeed Hub</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aluratek</t>
+  </si>
+  <si>
+    <t>42394374</t>
+  </si>
+  <si>
+    <t>SANYO 39 Class 1080p LED TV - Full HD 1080p, 60Hz (Refurbished)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>42939344</t>
+  </si>
+  <si>
+    <t>Epson T125420 (T1254) Standard Yield Yellow Remanufactured Ink Cartridge (Pack of 5)(Refurbished)</t>
+  </si>
+  <si>
+    <t>Epson</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1881,7 +1951,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1918,6 +1988,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1951,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1996,6 +2078,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2299,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6102,9 +6200,3824 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C350"/>
+  <autoFilter ref="C1:C350"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D350"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F322" sqref="F322"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>27746914</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>226293</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>743406</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>870823</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>872055</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>880487</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>1142162</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>3576468</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>3576474</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>4694705</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>4809754</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>5684700</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>5750843</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>5799659</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>9893715</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>10038406</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>10038408</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>10056403</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>10242709</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>10250458</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="34" customFormat="1">
+      <c r="A21" s="32">
+        <v>10714721</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="38" customFormat="1">
+      <c r="A22" s="37">
+        <v>10825593</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>10756168</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>10929481</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>10980690</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>11060740</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>11081106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>11084708</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>11089830</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>11291972</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>11331575</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>11331624</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>11463283</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>11463300</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>11465346</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>11948123</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>11948151</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>11973999</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>11979925</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>11988063</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>11997518</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>12167610</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>13056419</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>13056424</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>13056488</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>13056556</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>13056866</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>13060036</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>13073385</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>13073637</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>13077384</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>13078085</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>13213492</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>13214456</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>13216293</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>14506023</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>14550234</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>14860156</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>14916493</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>14922463</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>14922517</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>14931473</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>14972029</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>15172552</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>15611377</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>15738981</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>15988241</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>16422804</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>16523657</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>16677009</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>16954442</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>17046055</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>17129088</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>17327841</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>17490751</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>17655975</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>19311041</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>19756188</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>20700886</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>20835883</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>20976628</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>21068935</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>21152940</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>21345716</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>21631878</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="C85" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>21774863</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>21862736</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>21862747</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>21978138</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>22238105</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>22853791</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="34" customFormat="1">
+      <c r="A92" s="32">
+        <v>23133903</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="38" customFormat="1">
+      <c r="A93" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>23134578</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>23140281</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>23144076</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>23755955</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>24016931</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>24252979</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>24727223</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>24803341</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>26858866</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>28094202</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>29563889</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>29565529</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>29567375</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>29567742</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>30405197</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>31335921</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>31393782</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>31400455</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>31769069</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>31956572</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>32556594</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>32814646</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>32822800</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>33348419</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>33617493</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>33684630</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>33791218</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>33829709</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>33833002</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>33910267</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>33943557</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>33946313</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>33947089</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>34514138</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>34761087</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>34914267</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>34922623</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>34941783</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>34943855</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>34953497</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A134" s="32">
+        <v>35095307</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="38" customFormat="1">
+      <c r="A135" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>35105828</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>35119112</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>35182645</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>35183812</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>35195970</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>35584236</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>35822718</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>36082590</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="C143" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>36750803</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>37229793</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>37671535</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>37747222</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>37818643</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>37832409</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>38138775</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>38151724</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>38643673</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>38650681</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>38669081</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>38672154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>39146494</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>39149199</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>39470687</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>39675431</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>39753114</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>40136830</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>40137239</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>40145575</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>40192515</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>40201421</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>40206436</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>40227785</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>40438803</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>40499823</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>40499855</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>40500167</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>40500411</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>40500488</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="22"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>40501135</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>40501216</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>40501540</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>40501550</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>40501637</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>40501658</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C179" s="23"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>40501744</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>40501947</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>40501952</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>40502018</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>40502216</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>40502259</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>40502270</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>40502567</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>40623084</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>40706636</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>40712263</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>40717696</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>40742501</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>40784801</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>40807983</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>40810731</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>40818608</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>40859975</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>40861668</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>40870887</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200" s="1">
+        <v>40870889</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>40871172</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>40871357</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>40897267</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>40897653</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>40899628</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>40900078</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>40900109</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>40900237</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>40900252</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>40984217</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>40984269</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>40984320</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>40985056</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>40985592</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>40986239</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>41008997</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25">
+      <c r="A217" s="1">
+        <v>41030992</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>41031550</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>41033602</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>41053765</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>41076528</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>41077609</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>41091177</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>41104708</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>41114021</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>41147395</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>41161826</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>41174431</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>41174643</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" s="25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>41174664</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>41177031</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>41177114</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>41177406</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>41182437</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>41183019</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>41192577</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>41192699</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>41192973</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>41193130</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>41193166</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C240" s="25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>41193329</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>41193886</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>41194742</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>41195038</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>41195560</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>41195569</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>41234334</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>41258977</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>41259800</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>41269254</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>41281821</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>41285834</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>41443961</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>41444042</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>41444957</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>41447099</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>41448322</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>41486860</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C258" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>41487517</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>41490376</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>41490695</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>41491199</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>41493787</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>41508514</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>41509057</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>41530484</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>41607665</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>41732120</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>41732253</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>41744478</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>41812441</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>41828413</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>41866659</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>41868930</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>41869341</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>41940199</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>41941863</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>41950008</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>41952138</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>41955884</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>41961917</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>41969810</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>41970813</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>41981097</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>41981265</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C285" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>41985127</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>42001590</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="34" customFormat="1">
+      <c r="A288" s="32">
+        <v>42011667</v>
+      </c>
+      <c r="B288" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C288" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="38" customFormat="1">
+      <c r="A289" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B289" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="C289" s="38" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>42019050</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>42023674</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>42394349</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>42395885</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>42395886</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>42396301</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>42396336</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>42397285</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>42397293</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>42397741</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>42450792</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>42451033</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>42454477</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>42455189</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>42458550</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>42458571</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>42458753</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>42458762</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>42458909</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" s="34" customFormat="1">
+      <c r="A309" s="32">
+        <v>42458983</v>
+      </c>
+      <c r="B309" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" s="38" customFormat="1">
+      <c r="A310" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B310" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="C310" s="39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>42462389</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>42462460</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>42462518</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>42462654</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>42464144</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>42464321</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>42467684</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>42472884</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C318" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>42481309</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>42488472</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>42512235</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C321" s="23"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>42523147</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>42523402</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>42523410</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>42523523</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>42523698</v>
+      </c>
+      <c r="B326" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C326" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>42536003</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>42551039</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>42552559</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>42553983</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>42556022</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C331" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>42557313</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C332" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>42580605</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>42583666</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>42990553</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>43019603</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>43039464</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>43041464</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>43050808</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>43066593</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>43077207</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>43094427</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C342" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>43096069</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>43096351</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>43096915</v>
+      </c>
+      <c r="B345" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>43097590</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>43113696</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>43120512</v>
+      </c>
+      <c r="B348" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C348" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>43140427</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>43140441</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C350">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>